--- a/PROGRAM.xlsx
+++ b/PROGRAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IS_EXCEL_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -720,6 +720,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -732,15 +735,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -748,16 +748,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11986,18 +11976,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E24:AH37">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:AH20">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12009,8 +11999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BM41" sqref="BM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12018,7 +12008,7 @@
     <col min="1" max="1" width="14.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="8" style="17" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17" style="17" customWidth="1"/>
     <col min="5" max="34" width="5" style="17" customWidth="1"/>
     <col min="35" max="64" width="4.7109375" style="17" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="11" style="17" customWidth="1"/>
@@ -12623,7 +12613,7 @@
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <f>SUM(E7:AH7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="36">
         <v>10</v>
@@ -12632,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="24">
         <v>0</v>
@@ -12723,7 +12713,7 @@
       </c>
       <c r="AI7" s="17">
         <f t="shared" ref="AI7:BL7" si="0">IF(E55,(E7*E5/$C$7),9999*E7)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ7" s="17">
         <f t="shared" si="0"/>
@@ -12843,7 +12833,7 @@
       </c>
       <c r="BM7" s="41">
         <f>SUM(AI7:BL7)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
@@ -15787,7 +15777,7 @@
     <row r="21" spans="2:96" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E21" s="39">
         <f>SUM(E7:E20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="53">
         <f t="shared" ref="F21:AH21" si="16">SUM(F7:F20)</f>
@@ -15907,40 +15897,40 @@
       </c>
       <c r="BM21" s="19">
         <f>SUM(BM7:BM20)</f>
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="2:96" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="67"/>
-      <c r="AN23" s="67"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="67"/>
-      <c r="AQ23" s="67"/>
-      <c r="AR23" s="67"/>
-      <c r="AS23" s="67"/>
-      <c r="AT23" s="67"/>
-      <c r="AU23" s="67"/>
-      <c r="AV23" s="67"/>
-      <c r="AW23" s="67"/>
-      <c r="AX23" s="67"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="67"/>
-      <c r="BD23" s="67"/>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="67"/>
-      <c r="BG23" s="67"/>
-      <c r="BH23" s="67"/>
-      <c r="BI23" s="67"/>
-      <c r="BJ23" s="67"/>
-      <c r="BK23" s="67"/>
-      <c r="BL23" s="67"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="70"/>
+      <c r="AM23" s="70"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="70"/>
+      <c r="AQ23" s="70"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="70"/>
+      <c r="BD23" s="70"/>
+      <c r="BE23" s="70"/>
+      <c r="BF23" s="70"/>
+      <c r="BG23" s="70"/>
+      <c r="BH23" s="70"/>
+      <c r="BI23" s="70"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="70"/>
+      <c r="BL23" s="70"/>
       <c r="BM23" s="18"/>
       <c r="BN23" s="18"/>
       <c r="BO23" s="18"/>
@@ -15975,263 +15965,263 @@
       <c r="CR23" s="18"/>
     </row>
     <row r="24" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="67" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="61">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="68">
-        <v>1</v>
-      </c>
-      <c r="E24" s="70" t="str">
-        <f>IF(E7=1,E$2,"")</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="64">
+        <v>1</v>
+      </c>
+      <c r="E24" s="66">
+        <f t="shared" ref="E24:AH24" si="17">IF(E7=1,E$2,"")</f>
+        <v>1</v>
       </c>
       <c r="F24" s="20" t="str">
-        <f>IF(F7=1,F$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G24" s="20" t="str">
-        <f>IF(G7=1,G$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H24" s="20" t="str">
-        <f>IF(H7=1,H$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I24" s="20" t="str">
-        <f>IF(I7=1,I$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J24" s="20" t="str">
-        <f>IF(J7=1,J$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K24" s="20" t="str">
-        <f>IF(K7=1,K$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L24" s="20" t="str">
-        <f>IF(L7=1,L$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M24" s="20" t="str">
-        <f>IF(M7=1,M$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N24" s="20" t="str">
-        <f>IF(N7=1,N$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O24" s="20" t="str">
-        <f>IF(O7=1,O$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P24" s="20" t="str">
-        <f>IF(P7=1,P$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q24" s="20" t="str">
-        <f>IF(Q7=1,Q$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R24" s="20" t="str">
-        <f>IF(R7=1,R$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S24" s="20" t="str">
-        <f>IF(S7=1,S$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T24" s="20" t="str">
-        <f>IF(T7=1,T$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U24" s="20" t="str">
-        <f>IF(U7=1,U$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V24" s="20" t="str">
-        <f>IF(V7=1,V$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W24" s="20" t="str">
-        <f>IF(W7=1,W$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X24" s="20" t="str">
-        <f>IF(X7=1,X$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y24" s="20" t="str">
-        <f>IF(Y7=1,Y$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z24" s="20" t="str">
-        <f>IF(Z7=1,Z$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA24" s="20" t="str">
-        <f>IF(AA7=1,AA$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB24" s="20" t="str">
-        <f>IF(AB7=1,AB$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AC24" s="20" t="str">
-        <f>IF(AC7=1,AC$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD24" s="20" t="str">
-        <f>IF(AD7=1,AD$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AE24" s="20" t="str">
-        <f>IF(AE7=1,AE$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF24" s="20" t="str">
-        <f>IF(AF7=1,AF$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AG24" s="20" t="str">
-        <f>IF(AG7=1,AG$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AH24" s="21" t="str">
-        <f>IF(AH7=1,AH$2,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AI24" s="60" t="str">
-        <f t="shared" ref="F24:BL24" si="17">IF(AI7=1,AI2,"")</f>
+        <f t="shared" ref="AI24:BL24" si="18">IF(AI7=1,AI2,"")</f>
         <v/>
       </c>
       <c r="AJ24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AM24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AN24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AO24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AP24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AQ24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AR24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AS24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AT24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AU24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AV24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AW24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AX24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AY24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AZ24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BA24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BB24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BC24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BD24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BE24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BF24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BG24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BH24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BI24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BJ24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BK24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BL24" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BM24" s="37" t="str">
         <f>E24&amp;F24&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24&amp;P24&amp;Q24&amp;R24&amp;S24&amp;T24&amp;U24&amp;V24&amp;W24&amp;X24&amp;Y24&amp;Z24&amp;AA24&amp;AB24&amp;AC24&amp;AD24&amp;AE24&amp;AF24&amp;AG24&amp;AH24</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BN24" s="37">
         <f>LEN(BM24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO24" s="18"/>
       <c r="BP24" s="18"/>
@@ -16265,132 +16255,132 @@
       <c r="CR24" s="18"/>
     </row>
     <row r="25" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="62">
-        <f t="shared" ref="C25:C37" si="18">B8</f>
+        <f t="shared" ref="C25:C37" si="19">B8</f>
         <v>2</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="65">
         <v>2</v>
       </c>
       <c r="E25" s="22" t="str">
-        <f t="shared" ref="E25:AH25" si="19">IF(E8=1,E$2,"")</f>
+        <f t="shared" ref="E25:AH25" si="20">IF(E8=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="G25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q25" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="R25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="T25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="U25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="V25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="X25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Z25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AA25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AB25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AC25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AF25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AG25" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AH25" s="33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AI25" s="18"/>
@@ -16424,11 +16414,11 @@
       <c r="BK25" s="18"/>
       <c r="BL25" s="18"/>
       <c r="BM25" s="36" t="str">
-        <f t="shared" ref="BM25:BM37" si="20">E25&amp;F25&amp;G25&amp;H25&amp;I25&amp;J25&amp;K25&amp;L25&amp;M25&amp;N25&amp;O25&amp;P25&amp;Q25&amp;R25&amp;S25&amp;T25&amp;U25&amp;V25&amp;W25&amp;X25&amp;Y25&amp;Z25&amp;AA25&amp;AB25&amp;AC25&amp;AD25&amp;AE25&amp;AF25&amp;AG25&amp;AH25</f>
+        <f t="shared" ref="BM25:BM37" si="21">E25&amp;F25&amp;G25&amp;H25&amp;I25&amp;J25&amp;K25&amp;L25&amp;M25&amp;N25&amp;O25&amp;P25&amp;Q25&amp;R25&amp;S25&amp;T25&amp;U25&amp;V25&amp;W25&amp;X25&amp;Y25&amp;Z25&amp;AA25&amp;AB25&amp;AC25&amp;AD25&amp;AE25&amp;AF25&amp;AG25&amp;AH25</f>
         <v>21</v>
       </c>
       <c r="BN25" s="36">
-        <f t="shared" ref="BN25:BN37" si="21">LEN(BM25)</f>
+        <f t="shared" ref="BN25:BN37" si="22">LEN(BM25)</f>
         <v>2</v>
       </c>
       <c r="BO25" s="18"/>
@@ -16463,132 +16453,132 @@
       <c r="CR25" s="18"/>
     </row>
     <row r="26" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="D26" s="69">
+      <c r="D26" s="65">
         <v>3</v>
       </c>
       <c r="E26" s="22" t="str">
-        <f t="shared" ref="E26:AH26" si="22">IF(E9=1,E$2,"")</f>
+        <f t="shared" ref="E26:AH26" si="23">IF(E9=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="O26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="U26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="X26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Y26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Z26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AB26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AC26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AD26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AE26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AF26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AG26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AH26" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AI26" s="18"/>
@@ -16622,11 +16612,11 @@
       <c r="BK26" s="18"/>
       <c r="BL26" s="18"/>
       <c r="BM26" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2221</v>
       </c>
       <c r="BN26" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="BO26" s="18"/>
@@ -16661,132 +16651,132 @@
       <c r="CR26" s="18"/>
     </row>
     <row r="27" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="65">
         <v>4</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f t="shared" ref="E27:AH27" si="23">IF(E10=1,E$2,"")</f>
+        <f t="shared" ref="E27:AH27" si="24">IF(E10=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="H27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="L27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="O27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="P27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="S27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="T27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U27" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="V27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Y27" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Z27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AB27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AC27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AF27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AG27" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AH27" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AI27" s="18"/>
@@ -16820,11 +16810,11 @@
       <c r="BK27" s="18"/>
       <c r="BL27" s="18"/>
       <c r="BM27" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1111</v>
       </c>
       <c r="BN27" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="BO27" s="18"/>
@@ -16859,132 +16849,132 @@
       <c r="CR27" s="18"/>
     </row>
     <row r="28" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B28" s="65"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="65">
         <v>5</v>
       </c>
       <c r="E28" s="22" t="str">
-        <f t="shared" ref="E28:AH28" si="24">IF(E11=1,E$2,"")</f>
+        <f t="shared" ref="E28:AH28" si="25">IF(E11=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="G28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="H28" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="I28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="S28" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="V28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="X28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AA28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC28" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AD28" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AE28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AG28" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AH28" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AI28" s="18"/>
@@ -17018,11 +17008,11 @@
       <c r="BK28" s="18"/>
       <c r="BL28" s="18"/>
       <c r="BM28" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2112</v>
       </c>
       <c r="BN28" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="BO28" s="18"/>
@@ -17057,132 +17047,132 @@
       <c r="CR28" s="18"/>
     </row>
     <row r="29" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B29" s="65"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="65">
         <v>6</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" ref="E29:AH29" si="25">IF(E12=1,E$2,"")</f>
+        <f t="shared" ref="E29:AH29" si="26">IF(E12=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J29" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="K29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="M29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Y29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB29" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AC29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG29" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AH29" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AI29" s="18"/>
@@ -17216,11 +17206,11 @@
       <c r="BK29" s="18"/>
       <c r="BL29" s="18"/>
       <c r="BM29" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>222</v>
       </c>
       <c r="BN29" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="BO29" s="18"/>
@@ -17255,132 +17245,132 @@
       <c r="CR29" s="18"/>
     </row>
     <row r="30" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B30" s="65"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="65">
         <v>7</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f t="shared" ref="E30:AH30" si="26">IF(E13=1,E$2,"")</f>
+        <f t="shared" ref="E30:AH30" si="27">IF(E13=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="J30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="K30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="M30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="N30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="O30" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="S30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="T30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="W30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="X30" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Y30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AB30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AC30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AD30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AE30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG30" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AH30" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AI30" s="18"/>
@@ -17414,11 +17404,11 @@
       <c r="BK30" s="18"/>
       <c r="BL30" s="18"/>
       <c r="BM30" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="BN30" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="BO30" s="18"/>
@@ -17453,132 +17443,132 @@
       <c r="CR30" s="18"/>
     </row>
     <row r="31" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B31" s="65"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="62">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="69">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="65">
         <v>8</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f t="shared" ref="E31:AH31" si="27">IF(E14=1,E$2,"")</f>
+        <f t="shared" ref="E31:AH31" si="28">IF(E14=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="N31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="P31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="S31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="T31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="V31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="W31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="X31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Y31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Z31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AB31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AC31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AD31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AE31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AF31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG31" s="18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH31" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AI31" s="18"/>
@@ -17612,11 +17602,11 @@
       <c r="BK31" s="18"/>
       <c r="BL31" s="18"/>
       <c r="BM31" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BN31" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BO31" s="18"/>
@@ -17651,132 +17641,132 @@
       <c r="CR31" s="18"/>
     </row>
     <row r="32" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B32" s="65"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="62">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="69">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="65">
         <v>9</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f t="shared" ref="E32:AH32" si="28">IF(E15=1,E$2,"")</f>
+        <f t="shared" ref="E32:AH32" si="29">IF(E15=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="M32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="N32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="P32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="Q32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="R32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="S32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="T32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="V32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="W32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="X32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="Y32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="Z32" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AA32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AB32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AC32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AD32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AE32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AF32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AG32" s="18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AH32" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI32" s="18"/>
@@ -17810,11 +17800,11 @@
       <c r="BK32" s="18"/>
       <c r="BL32" s="18"/>
       <c r="BM32" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BN32" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BO32" s="18"/>
@@ -17849,132 +17839,132 @@
       <c r="CR32" s="18"/>
     </row>
     <row r="33" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B33" s="65"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="65">
         <v>10</v>
       </c>
       <c r="E33" s="22">
-        <f t="shared" ref="E33:AH33" si="29">IF(E16=1,E$2,"")</f>
+        <f t="shared" ref="E33:AH33" si="30">IF(E16=1,E$2,"")</f>
         <v>1</v>
       </c>
       <c r="F33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M33" s="18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="P33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Q33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="R33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="T33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="U33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="V33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="W33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Z33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AA33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AB33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AC33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AD33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AE33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AF33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AG33" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AH33" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AI33" s="18"/>
@@ -18008,11 +17998,11 @@
       <c r="BK33" s="18"/>
       <c r="BL33" s="18"/>
       <c r="BM33" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="BN33" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="BO33" s="18"/>
@@ -18047,132 +18037,132 @@
       <c r="CR33" s="18"/>
     </row>
     <row r="34" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B34" s="65"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="65">
         <v>11</v>
       </c>
       <c r="E34" s="22" t="str">
-        <f t="shared" ref="E34:AH34" si="30">IF(E17=1,E$2,"")</f>
+        <f t="shared" ref="E34:AH34" si="31">IF(E17=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="M34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="N34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="O34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="P34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Q34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="R34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="S34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="V34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Z34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AA34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AB34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AE34" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AF34" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AG34" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AH34" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AI34" s="18"/>
@@ -18206,11 +18196,11 @@
       <c r="BK34" s="18"/>
       <c r="BL34" s="18"/>
       <c r="BM34" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="BN34" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="BO34" s="18"/>
@@ -18245,132 +18235,132 @@
       <c r="CR34" s="18"/>
     </row>
     <row r="35" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B35" s="65"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="65">
         <v>12</v>
       </c>
       <c r="E35" s="22" t="str">
-        <f t="shared" ref="E35:AH35" si="31">IF(E18=1,E$2,"")</f>
+        <f t="shared" ref="E35:AH35" si="32">IF(E18=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="H35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="Q35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R35" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="S35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="V35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="X35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AA35" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AC35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AE35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AF35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AG35" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AH35" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AI35" s="18"/>
@@ -18404,11 +18394,11 @@
       <c r="BK35" s="18"/>
       <c r="BL35" s="18"/>
       <c r="BM35" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1221</v>
       </c>
       <c r="BN35" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="BO35" s="18"/>
@@ -18443,132 +18433,132 @@
       <c r="CR35" s="18"/>
     </row>
     <row r="36" spans="2:96" x14ac:dyDescent="0.2">
-      <c r="B36" s="65"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="65">
         <v>13</v>
       </c>
       <c r="E36" s="22" t="str">
-        <f t="shared" ref="E36:AH36" si="32">IF(E19=1,E$2,"")</f>
+        <f t="shared" ref="E36:AH36" si="33">IF(E19=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="R36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="T36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="W36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="X36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Y36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AB36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AC36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AE36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AF36" s="18" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AG36" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AH36" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="AI36" s="18"/>
@@ -18602,11 +18592,11 @@
       <c r="BK36" s="18"/>
       <c r="BL36" s="18"/>
       <c r="BM36" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="BN36" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="BO36" s="18"/>
@@ -18641,132 +18631,132 @@
       <c r="CR36" s="18"/>
     </row>
     <row r="37" spans="2:96" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="66"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D37" s="59">
         <v>14</v>
       </c>
       <c r="E37" s="29" t="str">
-        <f t="shared" ref="E37:AH37" si="33">IF(E20=1,E$2,"")</f>
+        <f t="shared" ref="E37:AH37" si="34">IF(E20=1,E$2,"")</f>
         <v/>
       </c>
       <c r="F37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="H37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="M37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="O37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="P37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="S37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="V37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="X37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Y37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Z37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AB37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AD37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AE37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AF37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AG37" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AH37" s="35" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AI37" s="18"/>
@@ -18800,11 +18790,11 @@
       <c r="BK37" s="18"/>
       <c r="BL37" s="18"/>
       <c r="BM37" s="38" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BN37" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BO37" s="18"/>
@@ -19027,123 +19017,123 @@
         <v>1</v>
       </c>
       <c r="E55" s="44" t="b">
-        <f t="shared" ref="E55:N68" si="34">AND(($B55&lt;=E$4),(E$4&lt;=$C55),(E$3&lt;=$A55))</f>
+        <f t="shared" ref="E55:N68" si="35">AND(($B55&lt;=E$4),(E$4&lt;=$C55),(E$3&lt;=$A55))</f>
         <v>1</v>
       </c>
       <c r="F55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N55" s="45" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O55" s="45" t="b">
-        <f t="shared" ref="O55:X68" si="35">AND(($B55&lt;=O$4),(O$4&lt;=$C55),(O$3&lt;=$A55))</f>
+        <f t="shared" ref="O55:X68" si="36">AND(($B55&lt;=O$4),(O$4&lt;=$C55),(O$3&lt;=$A55))</f>
         <v>1</v>
       </c>
       <c r="P55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X55" s="45" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y55" s="45" t="b">
-        <f t="shared" ref="Y55:AH68" si="36">AND(($B55&lt;=Y$4),(Y$4&lt;=$C55),(Y$3&lt;=$A55))</f>
+        <f t="shared" ref="Y55:AH68" si="37">AND(($B55&lt;=Y$4),(Y$4&lt;=$C55),(Y$3&lt;=$A55))</f>
         <v>1</v>
       </c>
       <c r="Z55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AD55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG55" s="45" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH55" s="46" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -19161,123 +19151,123 @@
         <v>2</v>
       </c>
       <c r="E56" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N56" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X56" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG56" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH56" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -19295,123 +19285,123 @@
         <v>3</v>
       </c>
       <c r="E57" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N57" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X57" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG57" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH57" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -19429,123 +19419,123 @@
         <v>4</v>
       </c>
       <c r="E58" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N58" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X58" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG58" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH58" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -19563,123 +19553,123 @@
         <v>5</v>
       </c>
       <c r="E59" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N59" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X59" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AD59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG59" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH59" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -19697,123 +19687,123 @@
         <v>6</v>
       </c>
       <c r="E60" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N60" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X60" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG60" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH60" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -19831,123 +19821,123 @@
         <v>7</v>
       </c>
       <c r="E61" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N61" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X61" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG61" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH61" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -19965,123 +19955,123 @@
         <v>8</v>
       </c>
       <c r="E62" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N62" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X62" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AE62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG62" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH62" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -20099,123 +20089,123 @@
         <v>9</v>
       </c>
       <c r="E63" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N63" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X63" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG63" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH63" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -20233,123 +20223,123 @@
         <v>10</v>
       </c>
       <c r="E64" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N64" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X64" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG64" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH64" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -20367,123 +20357,123 @@
         <v>11</v>
       </c>
       <c r="E65" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N65" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X65" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AE65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AF65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AG65" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AH65" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -20501,123 +20491,123 @@
         <v>12</v>
       </c>
       <c r="E66" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N66" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Q66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="V66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X66" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Y66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="Z66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AA66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AD66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AE66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AF66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AG66" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH66" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -20635,123 +20625,123 @@
         <v>13</v>
       </c>
       <c r="E67" s="47" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N67" s="48" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X67" s="48" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AE67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AF67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AG67" s="48" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AH67" s="49" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -20769,123 +20759,123 @@
         <v>14</v>
       </c>
       <c r="E68" s="50" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N68" s="51" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X68" s="51" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AD68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AE68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AF68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AG68" s="51" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AH68" s="52" t="b">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -20895,18 +20885,18 @@
     <mergeCell ref="AI23:BL23"/>
   </mergeCells>
   <conditionalFormatting sqref="E55:AH68">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:AH20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
